--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,498 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>閒</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>한가할 한</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>濁</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>흐릴 탁</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>奢</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>사치할 사</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>獨</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>홀로 독</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>援</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>도울 원</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>掌</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>손바닥 장, 맡을 장</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>管</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>대롱 관, 주관할 관</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>拍</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>칠 박</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>笑</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>웃을 소</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>難</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>어려울 난</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>艱</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>어려울 간</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>攻</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>칠 공</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>鳴</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>울 명</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>鐘</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>시계 종</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>策</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>꾀 책</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>索</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>찾을 색</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>塞</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>변방 새, 막힐 색</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>肯</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>즐길 긍</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>淨</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>깨끗할 정</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>拓</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>넓힐 척, 박을 탁</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>고칠 경, 다시 갱</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>說</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>말씀 설, 달랠 세, 기뻐할 열, 벗을 탈</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>遊</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>놀 유</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>誘</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>꾈 유</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>租</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>조세 조</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>會</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>모일 회</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>社</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>모일 사</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>機</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>베틀 기, 틀 기, 기회 기</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>契</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>맺을 계</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>關</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>관계할 관</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>應</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>응할 응</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>役</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>부릴 역</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>投</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>던질 투</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>義</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>옳을 의</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>講</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>외울 강</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>議</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>의논할 의</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>員</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>인원 원</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>協</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>협력할 협</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>討</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>칠 토</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>懷</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>품을 회</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>抱</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>안을 포</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,106 +1564,94 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>投</t>
+          <t>義</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>던질 투</t>
+          <t>옳을 의</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>義</t>
+          <t>講</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>옳을 의</t>
+          <t>외울 강</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>講</t>
+          <t>議</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>외울 강</t>
+          <t>의논할 의</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>議</t>
+          <t>員</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>의논할 의</t>
+          <t>인원 원</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>員</t>
+          <t>協</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>인원 원</t>
+          <t>협력할 협</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>協</t>
+          <t>討</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>협력할 협</t>
+          <t>칠 토</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>討</t>
+          <t>懷</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>칠 토</t>
+          <t>품을 회</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>懷</t>
+          <t>抱</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>품을 회</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>抱</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
         <is>
           <t>안을 포</t>
         </is>

--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,150 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>息</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>알 식</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>意</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>뜻 의</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>聯</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>연이을 연</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>設</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>설치할 설, 베풀 설, 세울 설</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>論</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>논할 논</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>描</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>그릴 묘</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>討</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>공격할 토, 토론할 토</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>考</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>생각할 고, 살필 고</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>準</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>준할 준, 평평할 준</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>望</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>바랄 망</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>忘</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>잊을 망</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>妄</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>망령될 망</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_한자어1글자.xlsx
+++ b/학습자료/단답형/국어_복습_한자어1글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1801,6 +1801,42 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>辨</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>분별할 변, 갖출 판, 두루 편</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>陽</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>볕 양</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>揚</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>날릴 양, 높일 양</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
